--- a/Li_CFSD_list.xlsx
+++ b/Li_CFSD_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/Github/Bianetal2019CFSD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C63EF14-C196-5B46-A404-7491698732C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FBEF8A-CC9D-6E45-9CE5-22C060D539FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8176,7 +8176,7 @@
   <dimension ref="A1:B2596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
